--- a/data files/Purchase Order/IV FLUID.xlsx
+++ b/data files/Purchase Order/IV FLUID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC909F4-F446-49D3-AB0C-206576792A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3444AC9-163B-444F-817C-A4DBC86F712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4308" yWindow="1176" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Unit</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>D25, 100ml</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>Qty</t>
@@ -555,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -578,12 +575,12 @@
       <c r="C3" s="3"/>
       <c r="D3" s="8"/>
       <c r="E3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -592,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -662,13 +659,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -770,13 +767,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -800,19 +797,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10">
-        <f>SUM(D6:D23)</f>
-        <v>360</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
   </sheetData>

--- a/data files/Purchase Order/IV FLUID.xlsx
+++ b/data files/Purchase Order/IV FLUID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3444AC9-163B-444F-817C-A4DBC86F712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC319BF2-13BC-481F-BFF1-87BE97AFFC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="1176" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Unit</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>DNS, 1 Liter</t>
-  </si>
-  <si>
-    <t>28/09/24</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>SI.</t>
@@ -243,7 +234,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -552,35 +543,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="D2" s="7"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -591,19 +580,17 @@
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -611,23 +598,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -635,17 +620,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,19 +642,17 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,11 +660,11 @@
         <v>1</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -693,37 +676,33 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="10">
-        <v>50</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,11 +710,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="10">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,17 +722,17 @@
         <v>1</v>
       </c>
       <c r="D18" s="10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -761,47 +740,43 @@
         <v>1</v>
       </c>
       <c r="D20" s="10">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
-        <v>14</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
+      <c r="D23" s="10">
+        <v>2</v>
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="10"/>
@@ -819,7 +794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
